--- a/npbenchmark-main/tabucol_GCP/tabu_result.xlsx
+++ b/npbenchmark-main/tabucol_GCP/tabu_result.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\tabucol_GCP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F408F3-F439-48BC-8AA3-758F5DB366B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E58E683-1CC9-4600-A87E-822CEC2DEFFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="500.1" sheetId="1" r:id="rId1"/>
+    <sheet name="500.5" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>Seed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,6 +44,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="#,##0_ "/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -79,8 +84,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -363,23 +370,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -387,10 +395,10 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>123604301</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>100.438</v>
       </c>
     </row>
@@ -398,10 +406,10 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>91729575</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>76.668999999999997</v>
       </c>
     </row>
@@ -409,10 +417,10 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>119326345</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>96.628500000000003</v>
       </c>
     </row>
@@ -420,10 +428,10 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>78869859</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>64.704800000000006</v>
       </c>
     </row>
@@ -431,10 +439,10 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>258364945</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>212.17099999999999</v>
       </c>
     </row>
@@ -442,10 +450,10 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>312726838</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>256.678</v>
       </c>
     </row>
@@ -453,10 +461,10 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>32209388</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>28.588799999999999</v>
       </c>
     </row>
@@ -464,10 +472,10 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>107452109</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>88.991900000000001</v>
       </c>
     </row>
@@ -475,10 +483,10 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>417779635</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>321.54300000000001</v>
       </c>
     </row>
@@ -486,11 +494,153 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>28009744</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>23.5991</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD6EFFC-BA4E-4954-8C8C-5C7E8E2EF2DD}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>267474167</v>
+      </c>
+      <c r="C2" s="1">
+        <v>565.15800000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>223680573</v>
+      </c>
+      <c r="C3" s="1">
+        <v>502.47800000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>176934040</v>
+      </c>
+      <c r="C4" s="1">
+        <v>374.85899999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>97163848</v>
+      </c>
+      <c r="C5" s="1">
+        <v>205.56899999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>46633598</v>
+      </c>
+      <c r="C6" s="1">
+        <v>99.997699999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>12541308</v>
+      </c>
+      <c r="C7" s="1">
+        <v>28.7255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>32686148</v>
+      </c>
+      <c r="C8" s="1">
+        <v>71.171899999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>36928629</v>
+      </c>
+      <c r="C9" s="1">
+        <v>78.049000000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>8581771</v>
+      </c>
+      <c r="C10" s="1">
+        <v>18.121700000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>39288630</v>
+      </c>
+      <c r="C11" s="1">
+        <v>84.261300000000006</v>
       </c>
     </row>
   </sheetData>
